--- a/biology/Botanique/Ach/Ach..xlsx
+++ b/biology/Botanique/Ach/Ach..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erik Acharius est un botaniste et médecin suédois, né le 10 octobre 1757 à Gävle et mort le 14 août 1819 à Vadstena, pionnier de la taxinomie des lichens et considéré comme le père de la lichenologie.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à l'université d'Uppsala en 1773 et est l'un des derniers étudiants de Carl von Linné. Il travaille ensuite pour l'Académie royale des sciences de Suède à Stockholm et complète ses études médicales à l'université de Lund en 1782. Il devient le médecin-chef de Vadstena en 1785, puis chef du district d'Ostrogothia en 1789, directeur du nouvel hôpital de Vadstena (qu'il avait contribué à fonder) en 1795 et professeur titulaire en 1803.
 Acharius appartient à la jeune génération des botanistes suédois qui continue l'œuvre de Linné. Acharius commence à classer les lichens et fait paraître plusieurs publications sur ce thème : Lichenographiae Suecia prodromus (1798), Methodus lichenum (1803), Lichenographia universalis (1810), Synopsis methodica lichenum (1814) ainsi que de nombreux articles plus courts dans diverses revues scientifiques.
@@ -547,7 +561,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Erik Acharius » (voir la liste des auteurs).</t>
         </is>
